--- a/image/contract.xlsx
+++ b/image/contract.xlsx
@@ -2432,44 +2432,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="123.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.2578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="123.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.98828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/contract.xlsx
+++ b/image/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="725">
   <si>
     <t>Path</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Contract.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +</t>
   </si>
   <si>
     <t>The status of the resource instance.</t>
@@ -887,10 +887,7 @@
     <t>Contract.contentDefinition.publicationStatus</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown.</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +.</t>
   </si>
   <si>
     <t>Status of the publication of contract content.</t>
@@ -7020,10 +7017,10 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7053,10 +7050,10 @@
         <v>126</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7123,13 +7120,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7180,7 +7177,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7232,10 +7229,10 @@
         <v>242</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7286,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -7304,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>155</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7418,7 +7415,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7526,7 +7523,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7636,7 +7633,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7662,10 +7659,10 @@
         <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7716,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7734,7 +7731,7 @@
         <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -7742,7 +7739,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7768,10 +7765,10 @@
         <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7822,7 +7819,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7840,15 +7837,15 @@
         <v>161</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7874,10 +7871,10 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7928,7 +7925,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7946,15 +7943,15 @@
         <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7980,10 +7977,10 @@
         <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8034,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8086,10 +8083,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8119,11 +8116,11 @@
         <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -8158,7 +8155,7 @@
         <v>233</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>155</v>
@@ -8166,7 +8163,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8192,10 +8189,10 @@
         <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8225,11 +8222,11 @@
         <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -8264,7 +8261,7 @@
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>155</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8298,10 +8295,10 @@
         <v>116</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8352,7 +8349,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8404,14 +8401,14 @@
         <v>242</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -8460,7 +8457,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8700,7 +8697,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8810,7 +8807,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8833,13 +8830,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8890,7 +8887,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8939,13 +8936,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8975,11 +8972,11 @@
         <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8996,7 +8993,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>48</v>
@@ -9022,7 +9019,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9045,13 +9042,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9081,11 +9078,11 @@
         <v>151</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -9128,7 +9125,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9151,13 +9148,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9187,11 +9184,11 @@
         <v>151</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
       </c>
@@ -9208,7 +9205,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -9234,7 +9231,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9260,10 +9257,10 @@
         <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9314,7 +9311,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -9332,7 +9329,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -9340,7 +9337,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9446,7 +9443,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9554,7 +9551,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9664,7 +9661,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,10 +9687,10 @@
         <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9744,7 +9741,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9770,7 +9767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9796,10 +9793,10 @@
         <v>242</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9850,7 +9847,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9876,7 +9873,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9982,7 +9979,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10090,7 +10087,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10200,7 +10197,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10223,13 +10220,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10280,7 +10277,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>48</v>
@@ -10306,7 +10303,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10332,10 +10329,10 @@
         <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10365,11 +10362,11 @@
         <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
       </c>
@@ -10386,7 +10383,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>48</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10438,16 +10435,16 @@
         <v>177</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -10496,7 +10493,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10511,10 +10508,10 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10548,10 +10545,10 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10581,11 +10578,11 @@
         <v>151</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
       </c>
@@ -10602,7 +10599,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10620,7 +10617,7 @@
         <v>39</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>155</v>
@@ -10628,7 +10625,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10654,14 +10651,14 @@
         <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -10689,11 +10686,11 @@
         <v>137</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>39</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10728,7 +10725,7 @@
         <v>39</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>155</v>
@@ -10736,7 +10733,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10762,10 +10759,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10795,11 +10792,11 @@
         <v>151</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10816,7 +10813,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10868,10 +10865,10 @@
         <v>242</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10922,7 +10919,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11054,7 +11051,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,7 +11159,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11272,7 +11269,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11295,13 +11292,13 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11352,7 +11349,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>48</v>
@@ -11378,7 +11375,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11404,10 +11401,10 @@
         <v>116</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11458,7 +11455,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11476,7 +11473,7 @@
         <v>39</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11484,7 +11481,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11510,10 +11507,10 @@
         <v>116</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11564,7 +11561,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11582,7 +11579,7 @@
         <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -11590,7 +11587,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11613,13 +11610,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11670,7 +11667,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11696,7 +11693,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11722,10 +11719,10 @@
         <v>242</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11776,7 +11773,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11794,7 +11791,7 @@
         <v>39</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11908,7 +11905,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12016,7 +12013,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12126,7 +12123,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12152,10 +12149,10 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12185,11 +12182,11 @@
         <v>151</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -12206,7 +12203,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12258,10 +12255,10 @@
         <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12291,11 +12288,11 @@
         <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -12312,7 +12309,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -12338,7 +12335,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12364,10 +12361,10 @@
         <v>177</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12418,7 +12415,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -12444,7 +12441,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12470,10 +12467,10 @@
         <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12503,11 +12500,11 @@
         <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
       </c>
@@ -12524,7 +12521,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12573,13 +12570,13 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12609,11 +12606,11 @@
         <v>137</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
       </c>
@@ -12630,7 +12627,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12648,7 +12645,7 @@
         <v>39</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12682,10 +12679,10 @@
         <v>242</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12736,7 +12733,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12868,7 +12865,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12976,7 +12973,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13086,7 +13083,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13112,10 +13109,10 @@
         <v>177</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13166,7 +13163,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13192,7 +13189,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13218,10 +13215,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13251,11 +13248,11 @@
         <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>39</v>
       </c>
@@ -13272,7 +13269,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13324,10 +13321,10 @@
         <v>116</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13378,7 +13375,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13404,7 +13401,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13430,10 +13427,10 @@
         <v>116</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13484,7 +13481,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13536,10 +13533,10 @@
         <v>133</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13569,11 +13566,11 @@
         <v>151</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>39</v>
       </c>
@@ -13590,7 +13587,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13608,7 +13605,7 @@
         <v>39</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
@@ -13616,7 +13613,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13642,10 +13639,10 @@
         <v>164</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13696,7 +13693,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13714,7 +13711,7 @@
         <v>39</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>39</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13748,10 +13745,10 @@
         <v>164</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13802,7 +13799,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13820,7 +13817,7 @@
         <v>39</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13828,7 +13825,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13854,10 +13851,10 @@
         <v>116</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13908,7 +13905,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13960,10 +13957,10 @@
         <v>116</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14014,7 +14011,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14066,10 +14063,10 @@
         <v>39</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14120,7 +14117,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -14146,7 +14143,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14169,13 +14166,13 @@
         <v>39</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14226,7 +14223,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14252,7 +14249,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14278,10 +14275,10 @@
         <v>242</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14332,7 +14329,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14350,7 +14347,7 @@
         <v>39</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -14358,7 +14355,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14464,7 +14461,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14572,7 +14569,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14682,7 +14679,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14708,10 +14705,10 @@
         <v>224</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14762,7 +14759,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14780,7 +14777,7 @@
         <v>39</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>155</v>
@@ -14788,7 +14785,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14814,10 +14811,10 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14868,7 +14865,7 @@
         <v>39</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14886,7 +14883,7 @@
         <v>39</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>39</v>
@@ -14894,7 +14891,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14920,10 +14917,10 @@
         <v>157</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14974,7 +14971,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14992,15 +14989,15 @@
         <v>39</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15023,13 +15020,13 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15080,7 +15077,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15098,7 +15095,7 @@
         <v>39</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>155</v>
@@ -15106,7 +15103,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15129,13 +15126,13 @@
         <v>39</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15186,7 +15183,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15204,7 +15201,7 @@
         <v>39</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>155</v>
@@ -15212,7 +15209,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15235,13 +15232,13 @@
         <v>39</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15292,7 +15289,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15310,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>155</v>
@@ -15318,7 +15315,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15341,13 +15338,13 @@
         <v>39</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15398,7 +15395,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -15416,7 +15413,7 @@
         <v>39</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>155</v>
@@ -15424,7 +15421,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15447,13 +15444,13 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15504,7 +15501,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15522,7 +15519,7 @@
         <v>39</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>155</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15556,10 +15553,10 @@
         <v>116</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15610,7 +15607,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15662,10 +15659,10 @@
         <v>157</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15716,7 +15713,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15765,13 +15762,13 @@
         <v>39</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15822,7 +15819,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15848,7 +15845,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15871,13 +15868,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15928,7 +15925,7 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15954,7 +15951,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15980,10 +15977,10 @@
         <v>116</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16034,7 +16031,7 @@
         <v>39</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16060,7 +16057,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16083,13 +16080,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16140,7 +16137,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16166,7 +16163,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16192,16 +16189,16 @@
         <v>242</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>39</v>
@@ -16250,7 +16247,7 @@
         <v>39</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16268,7 +16265,7 @@
         <v>39</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>39</v>
@@ -16276,7 +16273,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16382,7 +16379,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16490,7 +16487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16600,7 +16597,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16623,13 +16620,13 @@
         <v>39</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16680,7 +16677,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16706,7 +16703,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16732,10 +16729,10 @@
         <v>133</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16765,11 +16762,11 @@
         <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>39</v>
       </c>
@@ -16786,7 +16783,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>48</v>
@@ -16801,10 +16798,10 @@
         <v>39</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16812,7 +16809,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16838,10 +16835,10 @@
         <v>242</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16892,7 +16889,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16918,7 +16915,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17024,7 +17021,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17132,7 +17129,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17242,7 +17239,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17265,13 +17262,13 @@
         <v>39</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17322,7 +17319,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>48</v>
@@ -17348,7 +17345,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17374,10 +17371,10 @@
         <v>133</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17407,11 +17404,11 @@
         <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
       </c>
@@ -17428,7 +17425,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17446,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>39</v>
@@ -17454,7 +17451,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17480,10 +17477,10 @@
         <v>133</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17513,11 +17510,11 @@
         <v>151</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>39</v>
       </c>
@@ -17534,7 +17531,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>48</v>
@@ -17549,18 +17546,18 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK141" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>596</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17586,10 +17583,10 @@
         <v>116</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17640,7 +17637,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17666,7 +17663,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17692,10 +17689,10 @@
         <v>133</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17725,11 +17722,11 @@
         <v>151</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y143" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y143" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="Z143" t="s" s="2">
         <v>39</v>
       </c>
@@ -17746,7 +17743,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>48</v>
@@ -17772,7 +17769,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17795,13 +17792,13 @@
         <v>39</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K144" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17852,7 +17849,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17878,7 +17875,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17904,10 +17901,10 @@
         <v>116</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17958,7 +17955,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17984,7 +17981,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18007,13 +18004,13 @@
         <v>39</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18064,7 +18061,7 @@
         <v>39</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18090,7 +18087,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18113,13 +18110,13 @@
         <v>39</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18170,7 +18167,7 @@
         <v>39</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18196,7 +18193,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18222,10 +18219,10 @@
         <v>116</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18276,7 +18273,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18302,7 +18299,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18328,10 +18325,10 @@
         <v>133</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -18361,11 +18358,11 @@
         <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>39</v>
       </c>
@@ -18382,7 +18379,7 @@
         <v>39</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -18408,7 +18405,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18434,10 +18431,10 @@
         <v>133</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18467,11 +18464,11 @@
         <v>151</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>39</v>
       </c>
@@ -18488,7 +18485,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18537,13 +18534,13 @@
         <v>39</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18594,7 +18591,7 @@
         <v>39</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
@@ -18620,7 +18617,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18646,10 +18643,10 @@
         <v>116</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18700,7 +18697,7 @@
         <v>39</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
@@ -18726,7 +18723,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18752,10 +18749,10 @@
         <v>133</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18785,11 +18782,11 @@
         <v>151</v>
       </c>
       <c r="X153" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y153" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y153" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z153" t="s" s="2">
         <v>39</v>
       </c>
@@ -18806,7 +18803,7 @@
         <v>39</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
@@ -18832,7 +18829,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18855,13 +18852,13 @@
         <v>39</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18912,7 +18909,7 @@
         <v>39</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
@@ -18938,7 +18935,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18964,10 +18961,10 @@
         <v>116</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19018,7 +19015,7 @@
         <v>39</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19044,7 +19041,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19070,10 +19067,10 @@
         <v>116</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19124,7 +19121,7 @@
         <v>39</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19150,7 +19147,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19173,13 +19170,13 @@
         <v>39</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="L157" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19230,7 +19227,7 @@
         <v>39</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19256,7 +19253,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19279,13 +19276,13 @@
         <v>39</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19336,7 +19333,7 @@
         <v>39</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19362,7 +19359,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19388,10 +19385,10 @@
         <v>39</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19442,7 +19439,7 @@
         <v>39</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
@@ -19460,7 +19457,7 @@
         <v>39</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>155</v>
@@ -19468,7 +19465,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19494,10 +19491,10 @@
         <v>177</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19548,7 +19545,7 @@
         <v>39</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19574,7 +19571,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19597,13 +19594,13 @@
         <v>39</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19654,7 +19651,7 @@
         <v>39</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -19680,7 +19677,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19706,16 +19703,16 @@
         <v>242</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>39</v>
@@ -19764,7 +19761,7 @@
         <v>39</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -19782,7 +19779,7 @@
         <v>39</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>39</v>
@@ -19790,7 +19787,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19896,7 +19893,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20004,7 +20001,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20114,7 +20111,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20137,13 +20134,13 @@
         <v>39</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20173,11 +20170,11 @@
         <v>71</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>39</v>
       </c>
@@ -20194,7 +20191,7 @@
         <v>39</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>48</v>
@@ -20212,15 +20209,15 @@
         <v>39</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>676</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20243,13 +20240,13 @@
         <v>39</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20300,7 +20297,7 @@
         <v>39</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>48</v>
@@ -20315,18 +20312,18 @@
         <v>39</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AK167" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="AK167" t="s" s="2">
+      <c r="AL167" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>682</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20349,13 +20346,13 @@
         <v>39</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20406,7 +20403,7 @@
         <v>39</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>48</v>
@@ -20424,15 +20421,15 @@
         <v>39</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20458,10 +20455,10 @@
         <v>242</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20512,7 +20509,7 @@
         <v>39</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
@@ -20530,7 +20527,7 @@
         <v>39</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>155</v>
@@ -20538,7 +20535,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20644,7 +20641,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20752,7 +20749,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20862,7 +20859,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20885,13 +20882,13 @@
         <v>39</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20942,7 +20939,7 @@
         <v>39</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>48</v>
@@ -20960,7 +20957,7 @@
         <v>39</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>155</v>
@@ -20968,7 +20965,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20994,10 +20991,10 @@
         <v>242</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21048,7 +21045,7 @@
         <v>39</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21066,7 +21063,7 @@
         <v>39</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>155</v>
@@ -21074,7 +21071,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21180,7 +21177,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21288,7 +21285,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21398,7 +21395,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21421,13 +21418,13 @@
         <v>39</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -21478,7 +21475,7 @@
         <v>39</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>48</v>
@@ -21496,7 +21493,7 @@
         <v>39</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>155</v>
@@ -21504,7 +21501,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21530,10 +21527,10 @@
         <v>242</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21584,7 +21581,7 @@
         <v>39</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>40</v>
@@ -21602,7 +21599,7 @@
         <v>39</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>155</v>
@@ -21610,7 +21607,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21716,7 +21713,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21824,7 +21821,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21934,7 +21931,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21957,13 +21954,13 @@
         <v>39</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -22014,7 +22011,7 @@
         <v>39</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>48</v>
@@ -22032,7 +22029,7 @@
         <v>39</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>155</v>
@@ -22040,7 +22037,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22063,13 +22060,13 @@
         <v>39</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="L184" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -22120,7 +22117,7 @@
         <v>39</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>40</v>
@@ -22138,7 +22135,7 @@
         <v>39</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>39</v>

--- a/image/contract.xlsx
+++ b/image/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="725">
   <si>
     <t>Path</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Contract.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +</t>
   </si>
   <si>
     <t>The status of the resource instance.</t>
@@ -887,10 +887,7 @@
     <t>Contract.contentDefinition.publicationStatus</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown.</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +.</t>
   </si>
   <si>
     <t>Status of the publication of contract content.</t>
@@ -2432,44 +2429,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="123.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.2578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="123.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.98828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7020,10 +7017,10 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7053,10 +7050,10 @@
         <v>126</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7123,13 +7120,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7180,7 +7177,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7232,10 +7229,10 @@
         <v>242</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7286,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -7304,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>155</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7418,7 +7415,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7526,7 +7523,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7636,7 +7633,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7662,10 +7659,10 @@
         <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7716,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7734,7 +7731,7 @@
         <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -7742,7 +7739,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7768,10 +7765,10 @@
         <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7822,7 +7819,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7840,15 +7837,15 @@
         <v>161</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7874,10 +7871,10 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7928,7 +7925,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7946,15 +7943,15 @@
         <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7980,10 +7977,10 @@
         <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8034,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8086,10 +8083,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8119,11 +8116,11 @@
         <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -8158,7 +8155,7 @@
         <v>233</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>155</v>
@@ -8166,7 +8163,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8192,10 +8189,10 @@
         <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8225,11 +8222,11 @@
         <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -8264,7 +8261,7 @@
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>155</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8298,10 +8295,10 @@
         <v>116</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8352,7 +8349,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8404,14 +8401,14 @@
         <v>242</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -8460,7 +8457,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8700,7 +8697,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8810,7 +8807,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8833,13 +8830,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8890,7 +8887,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8939,13 +8936,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8975,11 +8972,11 @@
         <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8996,7 +8993,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>48</v>
@@ -9022,7 +9019,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9045,13 +9042,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9081,11 +9078,11 @@
         <v>151</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -9128,7 +9125,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9151,13 +9148,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9187,11 +9184,11 @@
         <v>151</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
       </c>
@@ -9208,7 +9205,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -9234,7 +9231,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9260,10 +9257,10 @@
         <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9314,7 +9311,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -9332,7 +9329,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -9340,7 +9337,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9446,7 +9443,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9554,7 +9551,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9664,7 +9661,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,10 +9687,10 @@
         <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9744,7 +9741,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9770,7 +9767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9796,10 +9793,10 @@
         <v>242</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9850,7 +9847,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9876,7 +9873,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9982,7 +9979,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10090,7 +10087,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10200,7 +10197,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10223,13 +10220,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10280,7 +10277,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>48</v>
@@ -10306,7 +10303,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10332,10 +10329,10 @@
         <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10365,11 +10362,11 @@
         <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
       </c>
@@ -10386,7 +10383,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>48</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10438,16 +10435,16 @@
         <v>177</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -10496,7 +10493,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10511,10 +10508,10 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10548,10 +10545,10 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10581,11 +10578,11 @@
         <v>151</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
       </c>
@@ -10602,7 +10599,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10620,7 +10617,7 @@
         <v>39</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>155</v>
@@ -10628,7 +10625,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10654,14 +10651,14 @@
         <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -10689,11 +10686,11 @@
         <v>137</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>39</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10728,7 +10725,7 @@
         <v>39</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>155</v>
@@ -10736,7 +10733,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10762,10 +10759,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10795,11 +10792,11 @@
         <v>151</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10816,7 +10813,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10868,10 +10865,10 @@
         <v>242</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10922,7 +10919,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11054,7 +11051,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,7 +11159,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11272,7 +11269,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11295,13 +11292,13 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11352,7 +11349,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>48</v>
@@ -11378,7 +11375,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11404,10 +11401,10 @@
         <v>116</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11458,7 +11455,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11476,7 +11473,7 @@
         <v>39</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11484,7 +11481,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11510,10 +11507,10 @@
         <v>116</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11564,7 +11561,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11582,7 +11579,7 @@
         <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -11590,7 +11587,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11613,13 +11610,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11670,7 +11667,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11696,7 +11693,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11722,10 +11719,10 @@
         <v>242</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11776,7 +11773,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11794,7 +11791,7 @@
         <v>39</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11908,7 +11905,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12016,7 +12013,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12126,7 +12123,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12152,10 +12149,10 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12185,11 +12182,11 @@
         <v>151</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -12206,7 +12203,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12258,10 +12255,10 @@
         <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12291,11 +12288,11 @@
         <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -12312,7 +12309,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -12338,7 +12335,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12364,10 +12361,10 @@
         <v>177</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12418,7 +12415,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -12444,7 +12441,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12470,10 +12467,10 @@
         <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12503,11 +12500,11 @@
         <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
       </c>
@@ -12524,7 +12521,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12573,13 +12570,13 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12609,11 +12606,11 @@
         <v>137</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
       </c>
@@ -12630,7 +12627,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12648,7 +12645,7 @@
         <v>39</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12682,10 +12679,10 @@
         <v>242</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12736,7 +12733,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12868,7 +12865,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12976,7 +12973,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13086,7 +13083,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13112,10 +13109,10 @@
         <v>177</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13166,7 +13163,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13192,7 +13189,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13218,10 +13215,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13251,11 +13248,11 @@
         <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>39</v>
       </c>
@@ -13272,7 +13269,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13324,10 +13321,10 @@
         <v>116</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13378,7 +13375,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13404,7 +13401,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13430,10 +13427,10 @@
         <v>116</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13484,7 +13481,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13536,10 +13533,10 @@
         <v>133</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13569,11 +13566,11 @@
         <v>151</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>39</v>
       </c>
@@ -13590,7 +13587,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13608,7 +13605,7 @@
         <v>39</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
@@ -13616,7 +13613,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13642,10 +13639,10 @@
         <v>164</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13696,7 +13693,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13714,7 +13711,7 @@
         <v>39</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>39</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13748,10 +13745,10 @@
         <v>164</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13802,7 +13799,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13820,7 +13817,7 @@
         <v>39</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13828,7 +13825,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13854,10 +13851,10 @@
         <v>116</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13908,7 +13905,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13960,10 +13957,10 @@
         <v>116</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14014,7 +14011,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14066,10 +14063,10 @@
         <v>39</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14120,7 +14117,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -14146,7 +14143,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14169,13 +14166,13 @@
         <v>39</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14226,7 +14223,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14252,7 +14249,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14278,10 +14275,10 @@
         <v>242</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14332,7 +14329,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14350,7 +14347,7 @@
         <v>39</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -14358,7 +14355,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14464,7 +14461,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14572,7 +14569,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14682,7 +14679,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14708,10 +14705,10 @@
         <v>224</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14762,7 +14759,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14780,7 +14777,7 @@
         <v>39</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>155</v>
@@ -14788,7 +14785,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14814,10 +14811,10 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14868,7 +14865,7 @@
         <v>39</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14886,7 +14883,7 @@
         <v>39</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>39</v>
@@ -14894,7 +14891,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14920,10 +14917,10 @@
         <v>157</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14974,7 +14971,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14992,15 +14989,15 @@
         <v>39</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15023,13 +15020,13 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15080,7 +15077,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15098,7 +15095,7 @@
         <v>39</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>155</v>
@@ -15106,7 +15103,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15129,13 +15126,13 @@
         <v>39</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15186,7 +15183,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15204,7 +15201,7 @@
         <v>39</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>155</v>
@@ -15212,7 +15209,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15235,13 +15232,13 @@
         <v>39</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15292,7 +15289,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15310,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>155</v>
@@ -15318,7 +15315,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15341,13 +15338,13 @@
         <v>39</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15398,7 +15395,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -15416,7 +15413,7 @@
         <v>39</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>155</v>
@@ -15424,7 +15421,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15447,13 +15444,13 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15504,7 +15501,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15522,7 +15519,7 @@
         <v>39</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>155</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15556,10 +15553,10 @@
         <v>116</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15610,7 +15607,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15662,10 +15659,10 @@
         <v>157</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15716,7 +15713,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15765,13 +15762,13 @@
         <v>39</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15822,7 +15819,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15848,7 +15845,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15871,13 +15868,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15928,7 +15925,7 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15954,7 +15951,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15980,10 +15977,10 @@
         <v>116</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16034,7 +16031,7 @@
         <v>39</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16060,7 +16057,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16083,13 +16080,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16140,7 +16137,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16166,7 +16163,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16192,16 +16189,16 @@
         <v>242</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>39</v>
@@ -16250,7 +16247,7 @@
         <v>39</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16268,7 +16265,7 @@
         <v>39</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>39</v>
@@ -16276,7 +16273,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16382,7 +16379,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16490,7 +16487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16600,7 +16597,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16623,13 +16620,13 @@
         <v>39</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16680,7 +16677,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16706,7 +16703,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16732,10 +16729,10 @@
         <v>133</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16765,11 +16762,11 @@
         <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>39</v>
       </c>
@@ -16786,7 +16783,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>48</v>
@@ -16801,10 +16798,10 @@
         <v>39</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16812,7 +16809,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16838,10 +16835,10 @@
         <v>242</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16892,7 +16889,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16918,7 +16915,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17024,7 +17021,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17132,7 +17129,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17242,7 +17239,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17265,13 +17262,13 @@
         <v>39</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17322,7 +17319,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>48</v>
@@ -17348,7 +17345,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17374,10 +17371,10 @@
         <v>133</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17407,11 +17404,11 @@
         <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
       </c>
@@ -17428,7 +17425,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17446,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>39</v>
@@ -17454,7 +17451,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17480,10 +17477,10 @@
         <v>133</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17513,11 +17510,11 @@
         <v>151</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>39</v>
       </c>
@@ -17534,7 +17531,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>48</v>
@@ -17549,18 +17546,18 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK141" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>596</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17586,10 +17583,10 @@
         <v>116</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17640,7 +17637,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17666,7 +17663,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17692,10 +17689,10 @@
         <v>133</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17725,11 +17722,11 @@
         <v>151</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y143" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y143" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="Z143" t="s" s="2">
         <v>39</v>
       </c>
@@ -17746,7 +17743,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>48</v>
@@ -17772,7 +17769,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17795,13 +17792,13 @@
         <v>39</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K144" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17852,7 +17849,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17878,7 +17875,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17904,10 +17901,10 @@
         <v>116</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17958,7 +17955,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17984,7 +17981,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18007,13 +18004,13 @@
         <v>39</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18064,7 +18061,7 @@
         <v>39</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18090,7 +18087,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18113,13 +18110,13 @@
         <v>39</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18170,7 +18167,7 @@
         <v>39</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18196,7 +18193,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18222,10 +18219,10 @@
         <v>116</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18276,7 +18273,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18302,7 +18299,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18328,10 +18325,10 @@
         <v>133</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -18361,11 +18358,11 @@
         <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>39</v>
       </c>
@@ -18382,7 +18379,7 @@
         <v>39</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -18408,7 +18405,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18434,10 +18431,10 @@
         <v>133</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18467,11 +18464,11 @@
         <v>151</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>39</v>
       </c>
@@ -18488,7 +18485,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18537,13 +18534,13 @@
         <v>39</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18594,7 +18591,7 @@
         <v>39</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
@@ -18620,7 +18617,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18646,10 +18643,10 @@
         <v>116</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18700,7 +18697,7 @@
         <v>39</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
@@ -18726,7 +18723,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18752,10 +18749,10 @@
         <v>133</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18785,11 +18782,11 @@
         <v>151</v>
       </c>
       <c r="X153" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y153" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y153" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z153" t="s" s="2">
         <v>39</v>
       </c>
@@ -18806,7 +18803,7 @@
         <v>39</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
@@ -18832,7 +18829,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18855,13 +18852,13 @@
         <v>39</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18912,7 +18909,7 @@
         <v>39</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
@@ -18938,7 +18935,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18964,10 +18961,10 @@
         <v>116</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19018,7 +19015,7 @@
         <v>39</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19044,7 +19041,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19070,10 +19067,10 @@
         <v>116</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19124,7 +19121,7 @@
         <v>39</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19150,7 +19147,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19173,13 +19170,13 @@
         <v>39</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="L157" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19230,7 +19227,7 @@
         <v>39</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19256,7 +19253,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19279,13 +19276,13 @@
         <v>39</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19336,7 +19333,7 @@
         <v>39</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19362,7 +19359,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19388,10 +19385,10 @@
         <v>39</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19442,7 +19439,7 @@
         <v>39</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
@@ -19460,7 +19457,7 @@
         <v>39</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>155</v>
@@ -19468,7 +19465,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19494,10 +19491,10 @@
         <v>177</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19548,7 +19545,7 @@
         <v>39</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19574,7 +19571,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19597,13 +19594,13 @@
         <v>39</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19654,7 +19651,7 @@
         <v>39</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -19680,7 +19677,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19706,16 +19703,16 @@
         <v>242</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>39</v>
@@ -19764,7 +19761,7 @@
         <v>39</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -19782,7 +19779,7 @@
         <v>39</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>39</v>
@@ -19790,7 +19787,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19896,7 +19893,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20004,7 +20001,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20114,7 +20111,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20137,13 +20134,13 @@
         <v>39</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20173,11 +20170,11 @@
         <v>71</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>39</v>
       </c>
@@ -20194,7 +20191,7 @@
         <v>39</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>48</v>
@@ -20212,15 +20209,15 @@
         <v>39</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>676</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20243,13 +20240,13 @@
         <v>39</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20300,7 +20297,7 @@
         <v>39</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>48</v>
@@ -20315,18 +20312,18 @@
         <v>39</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AK167" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="AK167" t="s" s="2">
+      <c r="AL167" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>682</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20349,13 +20346,13 @@
         <v>39</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20406,7 +20403,7 @@
         <v>39</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>48</v>
@@ -20424,15 +20421,15 @@
         <v>39</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20458,10 +20455,10 @@
         <v>242</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20512,7 +20509,7 @@
         <v>39</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
@@ -20530,7 +20527,7 @@
         <v>39</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>155</v>
@@ -20538,7 +20535,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20644,7 +20641,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20752,7 +20749,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20862,7 +20859,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20885,13 +20882,13 @@
         <v>39</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20942,7 +20939,7 @@
         <v>39</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>48</v>
@@ -20960,7 +20957,7 @@
         <v>39</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>155</v>
@@ -20968,7 +20965,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20994,10 +20991,10 @@
         <v>242</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21048,7 +21045,7 @@
         <v>39</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21066,7 +21063,7 @@
         <v>39</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>155</v>
@@ -21074,7 +21071,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21180,7 +21177,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21288,7 +21285,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21398,7 +21395,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21421,13 +21418,13 @@
         <v>39</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -21478,7 +21475,7 @@
         <v>39</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>48</v>
@@ -21496,7 +21493,7 @@
         <v>39</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>155</v>
@@ -21504,7 +21501,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21530,10 +21527,10 @@
         <v>242</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21584,7 +21581,7 @@
         <v>39</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>40</v>
@@ -21602,7 +21599,7 @@
         <v>39</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>155</v>
@@ -21610,7 +21607,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21716,7 +21713,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21824,7 +21821,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21934,7 +21931,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21957,13 +21954,13 @@
         <v>39</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -22014,7 +22011,7 @@
         <v>39</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>48</v>
@@ -22032,7 +22029,7 @@
         <v>39</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>155</v>
@@ -22040,7 +22037,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22063,13 +22060,13 @@
         <v>39</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="L184" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -22120,7 +22117,7 @@
         <v>39</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>40</v>
@@ -22138,7 +22135,7 @@
         <v>39</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>39</v>

--- a/image/contract.xlsx
+++ b/image/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="724">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -373,10 +373,6 @@
   </si>
   <si>
     <t>Contract.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business edition</t>
@@ -2429,44 +2425,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="123.46875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.98828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="123.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.2578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3798,19 +3794,19 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -3885,7 +3881,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3911,16 +3907,16 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -3945,14 +3941,14 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
       </c>
@@ -3969,7 +3965,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -3984,18 +3980,18 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4018,17 +4014,17 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -4053,14 +4049,14 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
       </c>
@@ -4077,7 +4073,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -4103,7 +4099,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4126,13 +4122,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4183,7 +4179,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -4209,7 +4205,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4235,10 +4231,10 @@
         <v>61</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4289,7 +4285,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -4315,7 +4311,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4338,17 +4334,17 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -4373,14 +4369,14 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
       </c>
@@ -4397,7 +4393,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -4415,15 +4411,15 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4446,17 +4442,17 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -4505,7 +4501,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -4520,10 +4516,10 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -4531,7 +4527,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4554,17 +4550,17 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -4613,7 +4609,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -4628,10 +4624,10 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -4639,7 +4635,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4662,13 +4658,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4695,14 +4691,14 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -4745,11 +4741,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4768,19 +4764,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -4829,7 +4825,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -4844,10 +4840,10 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -4855,7 +4851,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4878,17 +4874,17 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -4937,7 +4933,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -4955,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -4963,11 +4959,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4986,17 +4982,17 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -5045,7 +5041,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -5063,7 +5059,7 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -5071,7 +5067,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5094,13 +5090,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5151,7 +5147,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -5177,7 +5173,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5200,19 +5196,19 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -5261,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -5287,7 +5283,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5310,13 +5306,13 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5367,7 +5363,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -5393,7 +5389,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5416,13 +5412,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5473,7 +5469,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -5499,7 +5495,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5522,13 +5518,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5579,7 +5575,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -5605,7 +5601,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5628,13 +5624,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5685,7 +5681,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -5711,7 +5707,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5734,13 +5730,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5767,14 +5763,14 @@
         <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5817,7 +5813,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5840,17 +5836,17 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -5899,7 +5895,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5925,7 +5921,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5948,13 +5944,13 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5981,14 +5977,14 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
       </c>
@@ -6005,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -6020,18 +6016,18 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AL33" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6054,13 +6050,13 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6087,14 +6083,14 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
       </c>
@@ -6111,7 +6107,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -6129,15 +6125,15 @@
         <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6160,13 +6156,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6217,7 +6213,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -6229,7 +6225,7 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>39</v>
@@ -6243,7 +6239,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6266,13 +6262,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6323,7 +6319,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -6341,7 +6337,7 @@
         <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -6349,7 +6345,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6378,7 +6374,7 @@
         <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
@@ -6431,7 +6427,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -6449,7 +6445,7 @@
         <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -6457,11 +6453,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6483,10 +6479,10 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>96</v>
@@ -6541,7 +6537,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -6567,7 +6563,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6590,13 +6586,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6623,14 +6619,14 @@
         <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>48</v>
@@ -6673,7 +6669,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6696,13 +6692,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6729,14 +6725,14 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6802,13 +6798,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6859,7 +6855,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6885,7 +6881,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6908,13 +6904,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6965,7 +6961,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6991,7 +6987,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7017,10 +7013,10 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7047,14 +7043,14 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>48</v>
@@ -7097,7 +7093,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7120,13 +7116,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7177,7 +7173,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -7203,7 +7199,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7226,13 +7222,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7283,7 +7279,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -7295,21 +7291,21 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7332,13 +7328,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7389,7 +7385,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -7407,7 +7403,7 @@
         <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -7415,7 +7411,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7444,7 +7440,7 @@
         <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>96</v>
@@ -7497,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -7515,7 +7511,7 @@
         <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -7523,11 +7519,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7549,10 +7545,10 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
@@ -7607,7 +7603,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -7633,7 +7629,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7659,10 +7655,10 @@
         <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7713,7 +7709,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7731,7 +7727,7 @@
         <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -7739,7 +7735,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7762,13 +7758,13 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7819,7 +7815,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7834,18 +7830,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7868,13 +7864,13 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7925,7 +7921,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7940,18 +7936,18 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7974,13 +7970,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8031,7 +8027,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -8057,7 +8053,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8080,13 +8076,13 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8113,14 +8109,14 @@
         <v>39</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
       </c>
@@ -8137,7 +8133,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -8152,18 +8148,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8186,13 +8182,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8219,14 +8215,14 @@
         <v>39</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
       </c>
@@ -8243,7 +8239,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -8261,15 +8257,15 @@
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8292,13 +8288,13 @@
         <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8349,7 +8345,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -8375,7 +8371,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8398,17 +8394,17 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -8457,7 +8453,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8469,7 +8465,7 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>39</v>
@@ -8483,7 +8479,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8506,13 +8502,13 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8563,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -8581,7 +8577,7 @@
         <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -8589,7 +8585,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8618,7 +8614,7 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>96</v>
@@ -8671,7 +8667,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -8689,7 +8685,7 @@
         <v>39</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -8697,11 +8693,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8723,10 +8719,10 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>96</v>
@@ -8781,7 +8777,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8807,7 +8803,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8830,13 +8826,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8887,7 +8883,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8913,7 +8909,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8936,13 +8932,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8969,14 +8965,14 @@
         <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8993,7 +8989,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>48</v>
@@ -9019,7 +9015,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9042,13 +9038,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9075,14 +9071,14 @@
         <v>39</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
@@ -9099,7 +9095,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -9125,7 +9121,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9148,13 +9144,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9181,14 +9177,14 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
       </c>
@@ -9205,7 +9201,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -9231,7 +9227,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9254,13 +9250,13 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9311,7 +9307,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -9323,13 +9319,13 @@
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -9337,7 +9333,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9360,13 +9356,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9417,7 +9413,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -9435,7 +9431,7 @@
         <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -9443,7 +9439,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9472,7 +9468,7 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>96</v>
@@ -9525,7 +9521,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -9543,7 +9539,7 @@
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -9551,11 +9547,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9577,10 +9573,10 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>96</v>
@@ -9635,7 +9631,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -9661,7 +9657,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9687,10 +9683,10 @@
         <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9741,7 +9737,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9767,7 +9763,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9790,13 +9786,13 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9847,7 +9843,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9859,7 +9855,7 @@
         <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>39</v>
@@ -9873,7 +9869,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9896,13 +9892,13 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9953,7 +9949,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9971,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9979,7 +9975,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10008,7 +10004,7 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>96</v>
@@ -10061,7 +10057,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -10079,7 +10075,7 @@
         <v>39</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -10087,11 +10083,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10113,10 +10109,10 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>96</v>
@@ -10171,7 +10167,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -10197,7 +10193,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10220,13 +10216,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10277,7 +10273,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>48</v>
@@ -10303,7 +10299,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10326,13 +10322,13 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10359,14 +10355,14 @@
         <v>39</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
       </c>
@@ -10383,7 +10379,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>48</v>
@@ -10409,7 +10405,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10432,19 +10428,19 @@
         <v>49</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -10493,7 +10489,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10508,10 +10504,10 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -10519,7 +10515,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10542,13 +10538,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10575,14 +10571,14 @@
         <v>39</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
       </c>
@@ -10599,7 +10595,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10617,15 +10613,15 @@
         <v>39</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10648,17 +10644,17 @@
         <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -10683,14 +10679,14 @@
         <v>39</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>39</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10725,15 +10721,15 @@
         <v>39</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10756,13 +10752,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10789,14 +10785,14 @@
         <v>39</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10813,7 +10809,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10839,7 +10835,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10862,13 +10858,13 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10919,7 +10915,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10931,7 +10927,7 @@
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>39</v>
@@ -10945,7 +10941,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10968,13 +10964,13 @@
         <v>39</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11025,7 +11021,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -11043,7 +11039,7 @@
         <v>39</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -11051,7 +11047,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11080,7 +11076,7 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>96</v>
@@ -11133,7 +11129,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11151,7 +11147,7 @@
         <v>39</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>39</v>
@@ -11159,11 +11155,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11185,10 +11181,10 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>96</v>
@@ -11243,7 +11239,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -11269,7 +11265,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11292,13 +11288,13 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11349,7 +11345,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>48</v>
@@ -11375,7 +11371,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11398,13 +11394,13 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11455,7 +11451,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11473,7 +11469,7 @@
         <v>39</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11481,7 +11477,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11504,13 +11500,13 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11561,7 +11557,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11579,7 +11575,7 @@
         <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -11587,7 +11583,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11610,13 +11606,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11667,7 +11663,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11693,7 +11689,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11716,13 +11712,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11773,7 +11769,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11785,13 +11781,13 @@
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -11799,7 +11795,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11822,13 +11818,13 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11879,7 +11875,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11897,7 +11893,7 @@
         <v>39</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11905,7 +11901,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11934,7 +11930,7 @@
         <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>96</v>
@@ -11987,7 +11983,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -12005,7 +12001,7 @@
         <v>39</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
@@ -12013,11 +12009,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12039,10 +12035,10 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>96</v>
@@ -12097,7 +12093,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -12123,7 +12119,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12146,13 +12142,13 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12179,14 +12175,14 @@
         <v>39</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -12203,7 +12199,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -12229,7 +12225,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12252,13 +12248,13 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12285,14 +12281,14 @@
         <v>39</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -12309,7 +12305,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -12335,7 +12331,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12358,13 +12354,13 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12415,7 +12411,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -12441,7 +12437,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12464,13 +12460,13 @@
         <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12497,14 +12493,14 @@
         <v>39</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
       </c>
@@ -12521,7 +12517,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12547,7 +12543,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12570,13 +12566,13 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12603,14 +12599,14 @@
         <v>39</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
       </c>
@@ -12627,7 +12623,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12645,7 +12641,7 @@
         <v>39</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12653,7 +12649,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12676,13 +12672,13 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12733,7 +12729,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12745,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>39</v>
@@ -12759,7 +12755,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12782,13 +12778,13 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12839,7 +12835,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12857,7 +12853,7 @@
         <v>39</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
@@ -12865,7 +12861,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12894,7 +12890,7 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>96</v>
@@ -12947,7 +12943,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12965,7 +12961,7 @@
         <v>39</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12973,11 +12969,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12999,10 +12995,10 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>96</v>
@@ -13057,7 +13053,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -13083,7 +13079,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13106,13 +13102,13 @@
         <v>39</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13163,7 +13159,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13189,7 +13185,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13212,13 +13208,13 @@
         <v>39</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13245,14 +13241,14 @@
         <v>39</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>39</v>
       </c>
@@ -13269,7 +13265,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13295,7 +13291,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13318,13 +13314,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13375,7 +13371,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13401,7 +13397,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13424,13 +13420,13 @@
         <v>39</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13481,7 +13477,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13507,7 +13503,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13530,13 +13526,13 @@
         <v>39</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13563,14 +13559,14 @@
         <v>39</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>39</v>
       </c>
@@ -13587,7 +13583,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13605,7 +13601,7 @@
         <v>39</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
@@ -13613,7 +13609,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13636,13 +13632,13 @@
         <v>39</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13693,7 +13689,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13711,7 +13707,7 @@
         <v>39</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>39</v>
@@ -13719,7 +13715,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13742,13 +13738,13 @@
         <v>39</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13799,7 +13795,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13817,7 +13813,7 @@
         <v>39</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13825,7 +13821,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13848,13 +13844,13 @@
         <v>39</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13905,7 +13901,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13931,7 +13927,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13954,13 +13950,13 @@
         <v>39</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14011,7 +14007,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -14037,7 +14033,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14063,10 +14059,10 @@
         <v>39</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14117,7 +14113,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -14143,7 +14139,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14166,13 +14162,13 @@
         <v>39</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14223,7 +14219,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14249,7 +14245,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14272,13 +14268,13 @@
         <v>39</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14329,7 +14325,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14341,13 +14337,13 @@
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -14355,7 +14351,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14378,13 +14374,13 @@
         <v>39</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14435,7 +14431,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -14453,7 +14449,7 @@
         <v>39</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -14461,7 +14457,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14490,7 +14486,7 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>96</v>
@@ -14543,7 +14539,7 @@
         <v>39</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -14561,7 +14557,7 @@
         <v>39</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>39</v>
@@ -14569,11 +14565,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14595,10 +14591,10 @@
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>96</v>
@@ -14653,7 +14649,7 @@
         <v>39</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14679,7 +14675,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14702,13 +14698,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14759,7 +14755,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14777,15 +14773,15 @@
         <v>39</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14811,10 +14807,10 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14865,7 +14861,7 @@
         <v>39</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14883,7 +14879,7 @@
         <v>39</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>39</v>
@@ -14891,7 +14887,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14914,13 +14910,13 @@
         <v>39</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14971,7 +14967,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14989,15 +14985,15 @@
         <v>39</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15020,13 +15016,13 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15077,7 +15073,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15095,15 +15091,15 @@
         <v>39</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15126,13 +15122,13 @@
         <v>39</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15183,7 +15179,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15201,15 +15197,15 @@
         <v>39</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15232,13 +15228,13 @@
         <v>39</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15289,7 +15285,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15307,15 +15303,15 @@
         <v>39</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15338,13 +15334,13 @@
         <v>39</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15395,7 +15391,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -15413,15 +15409,15 @@
         <v>39</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15444,13 +15440,13 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15501,7 +15497,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15519,15 +15515,15 @@
         <v>39</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15550,13 +15546,13 @@
         <v>39</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15607,7 +15603,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15633,7 +15629,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15656,13 +15652,13 @@
         <v>39</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15713,7 +15709,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15739,7 +15735,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15762,13 +15758,13 @@
         <v>39</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15819,7 +15815,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15845,7 +15841,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15868,13 +15864,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15925,7 +15921,7 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15951,7 +15947,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15974,13 +15970,13 @@
         <v>39</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16031,7 +16027,7 @@
         <v>39</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16057,7 +16053,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16080,13 +16076,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16137,7 +16133,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16163,7 +16159,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16186,19 +16182,19 @@
         <v>39</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>39</v>
@@ -16247,7 +16243,7 @@
         <v>39</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16259,13 +16255,13 @@
         <v>39</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>39</v>
@@ -16273,7 +16269,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16296,13 +16292,13 @@
         <v>39</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16353,7 +16349,7 @@
         <v>39</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -16371,7 +16367,7 @@
         <v>39</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>39</v>
@@ -16379,7 +16375,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16408,7 +16404,7 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>96</v>
@@ -16461,7 +16457,7 @@
         <v>39</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -16479,7 +16475,7 @@
         <v>39</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>39</v>
@@ -16487,11 +16483,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16513,10 +16509,10 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>96</v>
@@ -16571,7 +16567,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -16597,7 +16593,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16620,13 +16616,13 @@
         <v>39</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16677,7 +16673,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16703,7 +16699,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16726,13 +16722,13 @@
         <v>39</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16759,14 +16755,14 @@
         <v>39</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>39</v>
       </c>
@@ -16783,7 +16779,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>48</v>
@@ -16798,10 +16794,10 @@
         <v>39</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16809,7 +16805,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16832,13 +16828,13 @@
         <v>39</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16889,7 +16885,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16901,7 +16897,7 @@
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>39</v>
@@ -16915,7 +16911,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16938,13 +16934,13 @@
         <v>39</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16995,7 +16991,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17013,7 +17009,7 @@
         <v>39</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>39</v>
@@ -17021,7 +17017,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17050,7 +17046,7 @@
         <v>94</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>96</v>
@@ -17103,7 +17099,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17121,7 +17117,7 @@
         <v>39</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>39</v>
@@ -17129,11 +17125,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17155,10 +17151,10 @@
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>96</v>
@@ -17213,7 +17209,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17239,7 +17235,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17262,13 +17258,13 @@
         <v>39</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17319,7 +17315,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>48</v>
@@ -17345,7 +17341,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17368,13 +17364,13 @@
         <v>39</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17401,14 +17397,14 @@
         <v>39</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
       </c>
@@ -17425,7 +17421,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17443,7 +17439,7 @@
         <v>39</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>39</v>
@@ -17451,7 +17447,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17474,13 +17470,13 @@
         <v>39</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17507,14 +17503,14 @@
         <v>39</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>39</v>
       </c>
@@ -17531,7 +17527,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>48</v>
@@ -17546,18 +17542,18 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AK141" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>595</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17580,13 +17576,13 @@
         <v>39</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17637,7 +17633,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17663,7 +17659,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17686,13 +17682,13 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17719,14 +17715,14 @@
         <v>39</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Y143" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Y143" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="Z143" t="s" s="2">
         <v>39</v>
       </c>
@@ -17743,7 +17739,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>48</v>
@@ -17769,7 +17765,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17792,13 +17788,13 @@
         <v>39</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="K144" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17849,7 +17845,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17875,7 +17871,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17898,13 +17894,13 @@
         <v>39</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17955,7 +17951,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17981,7 +17977,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18004,13 +18000,13 @@
         <v>39</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18061,7 +18057,7 @@
         <v>39</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18087,7 +18083,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18110,13 +18106,13 @@
         <v>39</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18167,7 +18163,7 @@
         <v>39</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18193,7 +18189,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18216,13 +18212,13 @@
         <v>39</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18273,7 +18269,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18299,7 +18295,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18322,13 +18318,13 @@
         <v>39</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -18355,14 +18351,14 @@
         <v>39</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>39</v>
       </c>
@@ -18379,7 +18375,7 @@
         <v>39</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -18405,7 +18401,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18428,13 +18424,13 @@
         <v>39</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18461,14 +18457,14 @@
         <v>39</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>626</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>39</v>
       </c>
@@ -18485,7 +18481,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -18511,7 +18507,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18534,13 +18530,13 @@
         <v>39</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18591,7 +18587,7 @@
         <v>39</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
@@ -18617,7 +18613,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18640,13 +18636,13 @@
         <v>39</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18697,7 +18693,7 @@
         <v>39</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
@@ -18723,7 +18719,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18746,13 +18742,13 @@
         <v>39</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18779,14 +18775,14 @@
         <v>39</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X153" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Y153" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="Y153" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="Z153" t="s" s="2">
         <v>39</v>
       </c>
@@ -18803,7 +18799,7 @@
         <v>39</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
@@ -18829,7 +18825,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18852,13 +18848,13 @@
         <v>39</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18909,7 +18905,7 @@
         <v>39</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
@@ -18935,7 +18931,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18958,13 +18954,13 @@
         <v>39</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19015,7 +19011,7 @@
         <v>39</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19041,7 +19037,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19064,13 +19060,13 @@
         <v>39</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19121,7 +19117,7 @@
         <v>39</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19147,7 +19143,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19170,13 +19166,13 @@
         <v>39</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="L157" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19227,7 +19223,7 @@
         <v>39</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19253,7 +19249,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19276,13 +19272,13 @@
         <v>39</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19333,7 +19329,7 @@
         <v>39</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19359,7 +19355,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19385,10 +19381,10 @@
         <v>39</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19439,7 +19435,7 @@
         <v>39</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
@@ -19457,15 +19453,15 @@
         <v>39</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19488,13 +19484,13 @@
         <v>39</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19545,7 +19541,7 @@
         <v>39</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19571,7 +19567,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19594,13 +19590,13 @@
         <v>39</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19651,7 +19647,7 @@
         <v>39</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -19677,7 +19673,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19700,19 +19696,19 @@
         <v>39</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>39</v>
@@ -19761,7 +19757,7 @@
         <v>39</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -19773,13 +19769,13 @@
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>39</v>
@@ -19787,7 +19783,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19810,13 +19806,13 @@
         <v>39</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -19867,7 +19863,7 @@
         <v>39</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>40</v>
@@ -19885,7 +19881,7 @@
         <v>39</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>39</v>
@@ -19893,7 +19889,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19922,7 +19918,7 @@
         <v>94</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>96</v>
@@ -19975,7 +19971,7 @@
         <v>39</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>40</v>
@@ -19993,7 +19989,7 @@
         <v>39</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>39</v>
@@ -20001,11 +19997,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20027,10 +20023,10 @@
         <v>93</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>96</v>
@@ -20085,7 +20081,7 @@
         <v>39</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>40</v>
@@ -20111,7 +20107,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20134,13 +20130,13 @@
         <v>39</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20170,11 +20166,11 @@
         <v>71</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>39</v>
       </c>
@@ -20191,7 +20187,7 @@
         <v>39</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>48</v>
@@ -20209,15 +20205,15 @@
         <v>39</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>675</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20240,13 +20236,13 @@
         <v>39</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20297,7 +20293,7 @@
         <v>39</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>48</v>
@@ -20312,18 +20308,18 @@
         <v>39</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AK167" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="AK167" t="s" s="2">
+      <c r="AL167" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>681</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20346,13 +20342,13 @@
         <v>39</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20403,7 +20399,7 @@
         <v>39</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>48</v>
@@ -20421,15 +20417,15 @@
         <v>39</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20452,13 +20448,13 @@
         <v>39</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20509,7 +20505,7 @@
         <v>39</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
@@ -20521,21 +20517,21 @@
         <v>39</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20558,13 +20554,13 @@
         <v>39</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20615,7 +20611,7 @@
         <v>39</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
@@ -20633,7 +20629,7 @@
         <v>39</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>39</v>
@@ -20641,7 +20637,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20670,7 +20666,7 @@
         <v>94</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>96</v>
@@ -20723,7 +20719,7 @@
         <v>39</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -20741,7 +20737,7 @@
         <v>39</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>39</v>
@@ -20749,11 +20745,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -20775,10 +20771,10 @@
         <v>93</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>96</v>
@@ -20833,7 +20829,7 @@
         <v>39</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -20859,7 +20855,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20882,13 +20878,13 @@
         <v>39</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20939,7 +20935,7 @@
         <v>39</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>48</v>
@@ -20957,15 +20953,15 @@
         <v>39</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20988,13 +20984,13 @@
         <v>39</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21045,7 +21041,7 @@
         <v>39</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21057,21 +21053,21 @@
         <v>39</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21094,13 +21090,13 @@
         <v>39</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -21151,7 +21147,7 @@
         <v>39</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>40</v>
@@ -21169,7 +21165,7 @@
         <v>39</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>39</v>
@@ -21177,7 +21173,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21206,7 +21202,7 @@
         <v>94</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>96</v>
@@ -21259,7 +21255,7 @@
         <v>39</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>40</v>
@@ -21277,7 +21273,7 @@
         <v>39</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>39</v>
@@ -21285,11 +21281,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -21311,10 +21307,10 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>96</v>
@@ -21369,7 +21365,7 @@
         <v>39</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>40</v>
@@ -21395,7 +21391,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21418,13 +21414,13 @@
         <v>39</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -21475,7 +21471,7 @@
         <v>39</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>48</v>
@@ -21493,15 +21489,15 @@
         <v>39</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21524,13 +21520,13 @@
         <v>39</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21581,7 +21577,7 @@
         <v>39</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>40</v>
@@ -21593,21 +21589,21 @@
         <v>39</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21630,13 +21626,13 @@
         <v>39</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -21687,7 +21683,7 @@
         <v>39</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>40</v>
@@ -21705,7 +21701,7 @@
         <v>39</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>39</v>
@@ -21713,7 +21709,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21742,7 +21738,7 @@
         <v>94</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M181" t="s" s="2">
         <v>96</v>
@@ -21795,7 +21791,7 @@
         <v>39</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>40</v>
@@ -21813,7 +21809,7 @@
         <v>39</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>39</v>
@@ -21821,11 +21817,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -21847,10 +21843,10 @@
         <v>93</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>96</v>
@@ -21905,7 +21901,7 @@
         <v>39</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>40</v>
@@ -21931,7 +21927,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21954,13 +21950,13 @@
         <v>39</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -22011,7 +22007,7 @@
         <v>39</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>48</v>
@@ -22029,15 +22025,15 @@
         <v>39</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22060,13 +22056,13 @@
         <v>39</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="L184" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -22117,7 +22113,7 @@
         <v>39</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>40</v>
@@ -22135,7 +22131,7 @@
         <v>39</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>39</v>
